--- a/tabelas.xlsx
+++ b/tabelas.xlsx
@@ -16,345 +16,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
-  <si>
-    <t xml:space="preserve">No Quadro 25 apresenta-se a entidade RampaMostura. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Quadro 30 apresenta-se a entidade RampaMaturacao. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Entidade: Usuario</t>
   </si>
   <si>
-    <t>Campo Descrição Tipo Tamanho</t>
-  </si>
-  <si>
-    <t>cd_usuario Código de usuário Int 20</t>
-  </si>
-  <si>
-    <t>ds_login Login do usuário Varchar 20</t>
-  </si>
-  <si>
-    <t>ds_senha Senha do usuário Varchar 20</t>
-  </si>
-  <si>
-    <t>nm_usuario Nome do usuário Varchar 50</t>
-  </si>
-  <si>
-    <t>ds_telefone Telefone do usuário Int 20</t>
-  </si>
-  <si>
-    <t>ds_email E-mail do usuário Varchar 50</t>
-  </si>
-  <si>
     <t>Entidade: Equipamento</t>
   </si>
   <si>
-    <t>cd_equipamento Código do equipamento Int 20</t>
-  </si>
-  <si>
-    <t>cd_usuario Código do usuário que criou o equipamento Int 20</t>
-  </si>
-  <si>
-    <t>nm_equipamento Nome do equipamento Varchar 50</t>
-  </si>
-  <si>
-    <t>ds_equipamento Descrição do equipamento Varchar 50</t>
-  </si>
-  <si>
-    <t>ds_obsequipamento Observação do equipamento Varchar 50</t>
-  </si>
-  <si>
-    <t>qt_equipamento Quantidade do equipamento Int 20</t>
-  </si>
-  <si>
     <t>Entidade: Ingrediente</t>
   </si>
   <si>
-    <t>cd_ingrediente Código do ingrediente Int 20</t>
-  </si>
-  <si>
-    <t>cd_usuario Código do usuário que criou o ingrediente Int 20</t>
-  </si>
-  <si>
-    <t>nm_ingrediente Nome do ingrediente Varchar 50</t>
-  </si>
-  <si>
-    <t>qt_ingrediente Quantidade do ingrediente Float 7,2</t>
-  </si>
-  <si>
-    <t>fb_ingrediente Data de fabricação do ingrediente Date</t>
-  </si>
-  <si>
-    <t>vcto_ingrediente Data de vencimento do ingrediente Date</t>
-  </si>
-  <si>
-    <t>vl_ingrediente Valor em R$ do ingrediente Float 7,2</t>
-  </si>
-  <si>
-    <t>dt_entrada Data de entrada do ingrediente Date</t>
-  </si>
-  <si>
-    <t>dt_saida Data de saída do ingrediente Date</t>
-  </si>
-  <si>
-    <t>ds_obs Observação do ingrediente Varchar 200</t>
-  </si>
-  <si>
     <t>Entidade: IngredientePrincipal</t>
   </si>
   <si>
-    <t>cd_ingredienteprincipal Código do ingrediente principal Int 20</t>
-  </si>
-  <si>
     <t>Entidade: Malte</t>
   </si>
   <si>
-    <t>cd_malte Código do malte Int 20</t>
-  </si>
-  <si>
-    <t>ds_ebc EBC do malte Varchar 200</t>
-  </si>
-  <si>
     <t>Entidade: Lupulo</t>
   </si>
   <si>
-    <t>cd_lupulo Código do lúpulo Int 20</t>
-  </si>
-  <si>
-    <t>ds_alfaacido Porcentagem de alfa-ácido do lúpulo Varchar 30</t>
-  </si>
-  <si>
-    <t>tp_lupulo Tipo de lúpulo cadastrado Int 20</t>
-  </si>
-  <si>
     <t>Entidade: Fermento</t>
   </si>
   <si>
-    <t>cd_fermento Código do fermento Int 20</t>
-  </si>
-  <si>
-    <t>cp_fermento Tipo de fermento cadastrado Int 20</t>
-  </si>
-  <si>
-    <t>ds_estilofermento Estilo do fermento cadastrado Int 20</t>
-  </si>
-  <si>
     <t>Entidade: IngredienteAdendo</t>
   </si>
   <si>
-    <t>cd_ingredienteadendo Código ingrediente adendo Int 20</t>
-  </si>
-  <si>
-    <t>cd_ingrediente Código ingrediente Int 20</t>
-  </si>
-  <si>
-    <t>tp_uso Tipo de uso do ingrediente adendo Int 20</t>
-  </si>
-  <si>
     <t>Entidade: IngredienteUsado</t>
   </si>
   <si>
-    <t>cd_ingredienteusado Código ingrediente usado Int 20</t>
-  </si>
-  <si>
-    <t>qtd_usado Quantidade de ingrediente usado Float 7,2</t>
-  </si>
-  <si>
-    <t>tp_usado Tipo do ingrediente usado Varchar 50</t>
-  </si>
-  <si>
-    <t>tmp_usado Tempo de uso do ingrediente usado Int 20</t>
-  </si>
-  <si>
-    <t>tp_ingrediente Tipo do ingrediente Varchar 50</t>
-  </si>
-  <si>
     <t>Entidade: Brassagem</t>
   </si>
   <si>
-    <t>cd_brassagem Código da brassagem Int 20</t>
-  </si>
-  <si>
-    <t>cd_usuario Código do usuário Int 20</t>
-  </si>
-  <si>
-    <t>cd_receita Código da receita Int 20</t>
-  </si>
-  <si>
-    <t>dt_inicial Data inicial da brassagem Date</t>
-  </si>
-  <si>
-    <t>dt_final Data final da brassagem Date</t>
-  </si>
-  <si>
-    <t>ds_obs Observação da brassagem Varchar 200</t>
-  </si>
-  <si>
-    <t>fl_brassagem Indicador de brassagem finalizada</t>
-  </si>
-  <si>
     <t>Entidade: Receita</t>
   </si>
   <si>
-    <t>nm_receita Nome da receita Varchar 50</t>
-  </si>
-  <si>
-    <t>ds_receita Descrição da receita Varchar 200</t>
-  </si>
-  <si>
-    <t>ds_estilo Estilo da cerveja Varchar 50</t>
-  </si>
-  <si>
-    <t>tp_brassagem Tipo de brassagem da receita Int 20</t>
-  </si>
-  <si>
-    <t>tp_receita Indicador de tipo de receita Int 20</t>
-  </si>
-  <si>
     <t>Entidade: Mostura</t>
   </si>
   <si>
-    <t>cd_mostura Código da mostura Int 20</t>
-  </si>
-  <si>
-    <t>ctd_aguamostura Quantidade de água para mostura do grão Int 20</t>
-  </si>
-  <si>
-    <t>qtd_agualavagem Quantidade de água para lavagem do grão Int 20</t>
-  </si>
-  <si>
-    <t>sg_receita SG da receita Int 20</t>
-  </si>
-  <si>
-    <t>Quadro 25 – Tabela RampaMostura</t>
-  </si>
-  <si>
     <t>Entidade: RampaMostura</t>
   </si>
   <si>
-    <t>Descrição Cadastro de rampa de mostura.</t>
-  </si>
-  <si>
-    <t>cd_rampamostura Código da rampa de mostura Int 20</t>
-  </si>
-  <si>
-    <t>rp_nome Nome da rampa de mostura Varchar 50</t>
-  </si>
-  <si>
-    <t>rp_tempo Tempo da rampa de mostura Int 20</t>
-  </si>
-  <si>
-    <t>rp_temperatura Temperatura da rampa de mostura Int 20</t>
-  </si>
-  <si>
-    <t>No Quadro 26 apresenta-se a entidade Fervura.</t>
-  </si>
-  <si>
-    <t>Quadro 26 – Tabela Fervura</t>
-  </si>
-  <si>
     <t>Entidade: Fervura</t>
   </si>
   <si>
-    <t>Descrição Cadastro de fervura.</t>
-  </si>
-  <si>
-    <t>cd_fervura Código da fervura Int 20</t>
-  </si>
-  <si>
-    <t>fv_tempo Tempo total da fervura Int 20</t>
-  </si>
-  <si>
-    <t>og_receita OG da receita Int 20</t>
-  </si>
-  <si>
-    <t>No Quadro 27 apresenta-se a entidade Fermentacao.</t>
-  </si>
-  <si>
-    <t>Quadro 27 – Tabela Fermentacao</t>
-  </si>
-  <si>
     <t>Entidade: Fermentacao</t>
   </si>
   <si>
-    <t>Descrição Cadastro de fermentação.</t>
-  </si>
-  <si>
-    <t>cd_fermentacao Código de fermentação Int 20</t>
-  </si>
-  <si>
-    <t>fg_receita FG da receita Int 20</t>
-  </si>
-  <si>
-    <t>No Quadro 28 apresenta-se a entidade RampaFermentacao.</t>
-  </si>
-  <si>
-    <t>Quadro 28 – Tabela RampaFermentacao</t>
-  </si>
-  <si>
     <t>Entidade: RampaFermentacao</t>
   </si>
   <si>
-    <t>Descrição Cadastro de rampa de fermentacao.</t>
-  </si>
-  <si>
-    <t>cd_rampafermentaca</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Código da rampa de fermentação Int 20</t>
-  </si>
-  <si>
-    <t>cd_fermentacao Código da fermentação Int 20</t>
-  </si>
-  <si>
-    <t>rp_nome Nome da rampa de fermentação Varchar 50</t>
-  </si>
-  <si>
-    <t>rp_tempo Tempo da rampa de fermentação Int 20</t>
-  </si>
-  <si>
-    <t>rp_temperatura Temperatura da rampa de fermentação Int 20</t>
-  </si>
-  <si>
-    <t>No Quadro 29 apresenta-se a entidade Maturacao.</t>
-  </si>
-  <si>
-    <t>Quadro 29 – Tabela Maturacao</t>
-  </si>
-  <si>
     <t>Entidade: Maturacao</t>
   </si>
   <si>
-    <t>Descrição Cadastro de maturação.</t>
-  </si>
-  <si>
-    <t>cd_maturacao Código da maturação Int 20</t>
-  </si>
-  <si>
-    <t>Quadro 30 – Tabela RampaMaturacao</t>
-  </si>
-  <si>
     <t>Entidade: RampaMaturacao</t>
   </si>
   <si>
-    <t>Descrição Cadastro de rampa de maturacao.</t>
-  </si>
-  <si>
-    <t>cd_rampamaturacao Código da rampa de maturação Int 20</t>
-  </si>
-  <si>
-    <t>rp_nome Nome da rampa de maturação Varchar 50</t>
-  </si>
-  <si>
-    <t>rp_tempo Tempo da rampa de maturação Int 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rp_temperatura Temperatura da rampa de maturação Int 20 </t>
+    <t>fl_brassagem; Indicador de brassagem finalizada</t>
+  </si>
+  <si>
+    <t>cd_equipamento; Código do equipamento ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_usuario; Código do usuário; que criou o equipamento ; Int; 20</t>
+  </si>
+  <si>
+    <t>qt_equipamento; Quantidade do equipamento ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_ingrediente; Código do ingrediente ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_usuario; Código do usuário; que criou o ingrediente ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_ingredienteprincipal; Código do ingrediente principal ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_malte; Código do malte ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_lupulo; Código do lúpulo ; Int; 20</t>
+  </si>
+  <si>
+    <t>tp_lupulo; Tipo de lúpulo cadastrado ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_fermento; Código do fermento ; Int; 20</t>
+  </si>
+  <si>
+    <t>cp_fermento; Tipo de fermento cadastrado ; Int; 20</t>
+  </si>
+  <si>
+    <t>ds_estilofermento; Estilo do fermento cadastrado ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_ingredienteadendo; Código ingrediente adendo ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_ingrediente; Código ingrediente ; Int; 20</t>
+  </si>
+  <si>
+    <t>tp_uso; Tipo de uso do ingrediente adendo ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_ingredienteusado; Código ingrediente usado ; Int; 20</t>
+  </si>
+  <si>
+    <t>tmp_usado; Tempo de uso do ingrediente usado ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_brassagem; Código da brassagem ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_receita; Código da receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>tp_brassagem; Tipo de brassagem da receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>tp_receita; Indicador de tipo de receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_mostura; Código da mostura ; Int; 20</t>
+  </si>
+  <si>
+    <t>ctd_aguamostura; Quantidade de água para mostura do grão ; Int; 20</t>
+  </si>
+  <si>
+    <t>qtd_agualavagem; Quantidade de água para lavagem do grão ; Int; 20</t>
+  </si>
+  <si>
+    <t>sg_receita; SG da receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_rampamostura; Código da rampa de mostura ; Int; 20</t>
+  </si>
+  <si>
+    <t>rp_tempo; Tempo da rampa de mostura ; Int; 20</t>
+  </si>
+  <si>
+    <t>rp_temperatura; Temperatura da rampa de mostura ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_fervura; Código da fervura ; Int; 20</t>
+  </si>
+  <si>
+    <t>fv_tempo; Tempo total da fervura ; Int; 20</t>
+  </si>
+  <si>
+    <t>og_receita; OG da receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_fermentacao; Código de fermentação ; Int; 20</t>
+  </si>
+  <si>
+    <t>fg_receita; FG da receita ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_fermentacao; Código da fermentação ; Int; 20</t>
+  </si>
+  <si>
+    <t>rp_tempo; Tempo da rampa de fermentação ; Int; 20</t>
+  </si>
+  <si>
+    <t>rp_temperatura; Temperatura da rampa de fermentação ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_maturacao; Código da maturação ; Int; 20</t>
+  </si>
+  <si>
+    <t>cd_rampamaturacao; Código da rampa de maturação ; Int; 20</t>
+  </si>
+  <si>
+    <t>rp_tempo; Tempo da rampa de maturação ; Int; 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_temperatura; Temperatura da rampa de maturação ; Int; 20 </t>
+  </si>
+  <si>
+    <t>nm_equipamento; Nome do equipamento ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_equipamento; Descrição do equipamento ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_obsequipamento; Observação do equipamento ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>nm_ingrediente; Nome do ingrediente ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_obs; Observação do ingrediente ; Varchar; 200</t>
+  </si>
+  <si>
+    <t>ds_ebc EBC; do malte ; Varchar; 200</t>
+  </si>
+  <si>
+    <t>ds_alfaacido; Porcentagem de alfa-ácido do lúpulo ; Varchar; 30</t>
+  </si>
+  <si>
+    <t>tp_usado; Tipo do ingrediente usado ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>tp_ingrediente; Tipo do ingrediente ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_obs; Observação da brassagem ; Varchar; 200</t>
+  </si>
+  <si>
+    <t>nm_receita; Nome da receita ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_receita; Descrição da receita ; Varchar; 200</t>
+  </si>
+  <si>
+    <t>ds_estilo; Estilo da cerveja ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>rp_nome; Nome da rampa de mostura ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>rp_nome; Nome da rampa de fermentação ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>rp_nome; Nome da rampa de maturação ; Varchar; 50</t>
+  </si>
+  <si>
+    <t>fb_ingrediente; Data de fabricação do ingrediente ; Date;</t>
+  </si>
+  <si>
+    <t>vcto_ingrediente; Data de vencimento do ingrediente ; Date;</t>
+  </si>
+  <si>
+    <t>dt_entrada; Data de entrada do ingrediente ; Date;</t>
+  </si>
+  <si>
+    <t>dt_saida; Data de saída do ingrediente ; Date;</t>
+  </si>
+  <si>
+    <t>dt_inicial; Data inicial da brassagem ; Date;</t>
+  </si>
+  <si>
+    <t>dt_final; Data final da brassagem ; Date;</t>
+  </si>
+  <si>
+    <t>qt_ingrediente; Quantidade do ingrediente ; Float; 7,2</t>
+  </si>
+  <si>
+    <t>vl_ingrediente; Valor em R$ do ingrediente ; Float; 7,2</t>
+  </si>
+  <si>
+    <t>qtd_usado; Quantidade de ingrediente usado ; Float; 7,2</t>
+  </si>
+  <si>
+    <t>cd_usuario; Código de usuário;  Int; 20</t>
+  </si>
+  <si>
+    <t>ds_login; Login do usuário;  Varchar; 20</t>
+  </si>
+  <si>
+    <t>ds_senha; Senha do usuário;  Varchar; 20</t>
+  </si>
+  <si>
+    <t>nm_usuario; Nome do usuário;  Varchar; 50</t>
+  </si>
+  <si>
+    <t>ds_telefone; Telefone do usuário;  Int; 20</t>
+  </si>
+  <si>
+    <t>ds_email; E-mail do usuário;  Varchar; 50</t>
+  </si>
+  <si>
+    <t>cd_usuario; Código do usuário;  Int; 20</t>
   </si>
 </sst>
 </file>
@@ -686,677 +620,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:D154"/>
+  <dimension ref="D3:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91">
-        <v>55</v>
+      <c r="D91" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4">
-      <c r="D107" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>89</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
